--- a/STATS/Chennai Super Kings/MS Dhoni (c)†.xlsx
+++ b/STATS/Chennai Super Kings/MS Dhoni (c)†.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,28 +443,28 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" t="str">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>90.47</v>
+        <v>25.00</v>
       </c>
       <c r="H3" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Kolkata Knight Riders</v>
       </c>
     </row>
     <row r="4">
@@ -472,28 +472,28 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="str">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="str">
-        <v>100.00</v>
+        <v>90.47</v>
       </c>
       <c r="H4" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I4" t="str">
-        <v>Mumbai Indians</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
     </row>
     <row r="5">
@@ -501,28 +501,28 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C5" t="str">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D5" t="str">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="str">
-        <v>100.00</v>
+        <v>90.47</v>
       </c>
       <c r="H5" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I5" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
     </row>
     <row r="6">
@@ -530,28 +530,28 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6" t="str">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D6" t="str">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="str">
-        <v>60.00</v>
+        <v>100.00</v>
       </c>
       <c r="H6" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I6" t="str">
-        <v>Delhi Capitals</v>
+        <v>Mumbai Indians</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +559,13 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C7" t="str">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" t="str">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" t="str">
         <v>1</v>
@@ -574,13 +574,13 @@
         <v>2</v>
       </c>
       <c r="G7" t="str">
-        <v>161.53</v>
+        <v>100.00</v>
       </c>
       <c r="H7" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I7" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Mumbai Indians</v>
       </c>
     </row>
     <row r="8">
@@ -588,28 +588,28 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C8" t="str">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D8" t="str">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E8" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="str">
-        <v>166.66</v>
+        <v>100.00</v>
       </c>
       <c r="H8" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I8" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Rajasthan Royals</v>
       </c>
     </row>
     <row r="9">
@@ -617,28 +617,28 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C9" t="str">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D9" t="str">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E9" t="str">
         <v>0</v>
       </c>
       <c r="F9" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="str">
-        <v>91.66</v>
+        <v>100.00</v>
       </c>
       <c r="H9" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I9" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Rajasthan Royals</v>
       </c>
     </row>
     <row r="10">
@@ -646,28 +646,28 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C10" t="str">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D10" t="str">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E10" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" t="str">
-        <v>130.55</v>
+        <v>60.00</v>
       </c>
       <c r="H10" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I10" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Delhi Capitals</v>
       </c>
     </row>
     <row r="11">
@@ -675,22 +675,22 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C11" t="str">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D11" t="str">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E11" t="str">
         <v>0</v>
       </c>
       <c r="F11" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="str">
-        <v>125.00</v>
+        <v>60.00</v>
       </c>
       <c r="H11" t="str">
         <v>Chennai Super Kings</v>
@@ -704,28 +704,28 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C12" t="str">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D12" t="str">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E12" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="str">
-        <v>170.58</v>
+        <v>161.53</v>
       </c>
       <c r="H12" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I12" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
     </row>
     <row r="13">
@@ -733,33 +733,381 @@
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13" t="str">
+        <v>21</v>
+      </c>
+      <c r="D13" t="str">
+        <v>13</v>
+      </c>
+      <c r="E13" t="str">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <v>161.53</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>MS Dhoni (c)†</v>
+      </c>
+      <c r="B14">
+        <v>36</v>
+      </c>
+      <c r="C14" t="str">
+        <v>10</v>
+      </c>
+      <c r="D14" t="str">
+        <v>6</v>
+      </c>
+      <c r="E14" t="str">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <v>166.66</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>MS Dhoni (c)†</v>
+      </c>
+      <c r="B15">
+        <v>36</v>
+      </c>
+      <c r="C15" t="str">
+        <v>10</v>
+      </c>
+      <c r="D15" t="str">
+        <v>6</v>
+      </c>
+      <c r="E15" t="str">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <v>166.66</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>MS Dhoni (c)†</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16" t="str">
+        <v>11</v>
+      </c>
+      <c r="D16" t="str">
+        <v>12</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <v>91.66</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>MS Dhoni (c)†</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17" t="str">
+        <v>11</v>
+      </c>
+      <c r="D17" t="str">
+        <v>12</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <v>91.66</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>MS Dhoni (c)†</v>
+      </c>
+      <c r="B18">
+        <v>47</v>
+      </c>
+      <c r="C18" t="str">
+        <v>47</v>
+      </c>
+      <c r="D18" t="str">
+        <v>36</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <v>4</v>
+      </c>
+      <c r="G18" t="str">
+        <v>130.55</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>MS Dhoni (c)†</v>
+      </c>
+      <c r="B19">
+        <v>47</v>
+      </c>
+      <c r="C19" t="str">
+        <v>47</v>
+      </c>
+      <c r="D19" t="str">
+        <v>36</v>
+      </c>
+      <c r="E19" t="str">
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <v>4</v>
+      </c>
+      <c r="G19" t="str">
+        <v>130.55</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>MS Dhoni (c)†</v>
+      </c>
+      <c r="B20">
+        <v>54</v>
+      </c>
+      <c r="C20" t="str">
+        <v>15</v>
+      </c>
+      <c r="D20" t="str">
+        <v>12</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <v>125.00</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>MS Dhoni (c)†</v>
+      </c>
+      <c r="B21">
+        <v>54</v>
+      </c>
+      <c r="C21" t="str">
+        <v>15</v>
+      </c>
+      <c r="D21" t="str">
+        <v>12</v>
+      </c>
+      <c r="E21" t="str">
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <v>125.00</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>MS Dhoni (c)†</v>
+      </c>
+      <c r="B22">
+        <v>57</v>
+      </c>
+      <c r="C22" t="str">
+        <v>29</v>
+      </c>
+      <c r="D22" t="str">
+        <v>17</v>
+      </c>
+      <c r="E22" t="str">
+        <v>3</v>
+      </c>
+      <c r="F22" t="str">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <v>170.58</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>MS Dhoni (c)†</v>
+      </c>
+      <c r="B23">
+        <v>57</v>
+      </c>
+      <c r="C23" t="str">
+        <v>29</v>
+      </c>
+      <c r="D23" t="str">
+        <v>17</v>
+      </c>
+      <c r="E23" t="str">
+        <v>3</v>
+      </c>
+      <c r="F23" t="str">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <v>170.58</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>MS Dhoni (c)†</v>
+      </c>
+      <c r="B24">
         <v>60</v>
       </c>
-      <c r="C13" t="str">
-        <v>0</v>
-      </c>
-      <c r="D13" t="str">
+      <c r="C24" t="str">
+        <v>0</v>
+      </c>
+      <c r="D24" t="str">
         <v>2</v>
       </c>
-      <c r="E13" t="str">
-        <v>0</v>
-      </c>
-      <c r="F13" t="str">
-        <v>0</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="E24" t="str">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
         <v>0.00</v>
       </c>
-      <c r="H13" t="str">
-        <v>Chennai Super Kings</v>
-      </c>
-      <c r="I13" t="str">
+      <c r="H24" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>MS Dhoni (c)†</v>
+      </c>
+      <c r="B25">
+        <v>60</v>
+      </c>
+      <c r="C25" t="str">
+        <v>0</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2</v>
+      </c>
+      <c r="E25" t="str">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="I25" t="str">
         <v>Mumbai Indians</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I25"/>
   </ignoredErrors>
 </worksheet>
 </file>